--- a/analysis/_Overall/Declination/IL2022-decl.xlsx
+++ b/analysis/_Overall/Declination/IL2022-decl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/_Overall/Declination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394A6661-534B-BF42-AE41-93ADC2CFC2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C6FADE-FB3D-D243-8327-77633E4DB114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="500" windowWidth="27620" windowHeight="17500" xr2:uid="{97C195A7-3689-6942-ACB0-56BF6A69CD1F}"/>
+    <workbookView xWindow="12960" yWindow="5560" windowWidth="15260" windowHeight="11640" activeTab="1" xr2:uid="{97C195A7-3689-6942-ACB0-56BF6A69CD1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Errors" sheetId="3" r:id="rId1"/>
@@ -1538,7 +1538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1558,8 +1558,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1888,7 +1886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B66943-B542-1B4B-9B80-6F52A8120BE4}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1905,7 +1903,7 @@
     <col min="15" max="15" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -1948,9 +1946,8 @@
       <c r="N1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="18"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
@@ -1992,7 +1989,7 @@
         <v>7.251425769657557E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>17</v>
       </c>
@@ -2035,7 +2032,7 @@
       </c>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2084,7 +2081,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2130,7 +2127,7 @@
         <v>4.0250102078181693E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2176,7 +2173,7 @@
         <v>2.093258636455872E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2222,7 +2219,7 @@
         <v>1.1067643393541157E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2268,7 +2265,7 @@
         <v>1.3029495734385872E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2314,7 +2311,7 @@
         <v>1.2433581579674689E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2360,7 +2357,7 @@
         <v>9.6366342749074369E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2406,7 +2403,7 @@
         <v>1.0706948949334445E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2452,7 +2449,7 @@
         <v>1.1832386862978305E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2498,7 +2495,7 @@
         <v>1.8483638217531767E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2544,7 +2541,7 @@
         <v>2.3097327198060538E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2590,7 +2587,7 @@
         <v>1.3016199301409848E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -3045,7 +3042,7 @@
         <f t="shared" si="0"/>
         <v>1.3275928030194884E-2</v>
       </c>
-      <c r="P25" s="17" t="s">
+      <c r="P25" s="8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3054,31 +3051,31 @@
         <v>35</v>
       </c>
       <c r="B26" s="2">
-        <f>(B21-B23)/ (0.5 - B25)</f>
+        <f t="shared" ref="B26:H26" si="5">(B21-B23)/ (0.5 - B25)</f>
         <v>2.6238303348794809</v>
       </c>
       <c r="C26" s="2">
-        <f>(C21-C23)/ (0.5 - C25)</f>
+        <f t="shared" si="5"/>
         <v>2.5469329638544984</v>
       </c>
       <c r="D26" s="2">
-        <f>(D21-D23)/ (0.5 - D25)</f>
+        <f t="shared" si="5"/>
         <v>2.3638622070271276</v>
       </c>
       <c r="E26" s="2">
-        <f>(E21-E23)/ (0.5 - E25)</f>
+        <f t="shared" si="5"/>
         <v>2.5844050306352786</v>
       </c>
       <c r="F26" s="2">
-        <f>(F21-F23)/ (0.5 - F25)</f>
+        <f t="shared" si="5"/>
         <v>2.7032888277325071</v>
       </c>
       <c r="G26" s="2">
-        <f>(G21-G23)/ (0.5 - G25)</f>
+        <f t="shared" si="5"/>
         <v>2.6063190154539639</v>
       </c>
       <c r="H26" s="2">
-        <f>(H21-H23)/ (0.5 - H25)</f>
+        <f t="shared" si="5"/>
         <v>2.6854182305235423</v>
       </c>
       <c r="I26" s="2">
@@ -3110,31 +3107,31 @@
         <v>36</v>
       </c>
       <c r="B27" s="2">
-        <f>(B22-B21)/(B24-0.5)</f>
+        <f t="shared" ref="B27:H27" si="6">(B22-B21)/(B24-0.5)</f>
         <v>0.8947685105050166</v>
       </c>
       <c r="C27" s="2">
-        <f>(C22-C21)/(C24-0.5)</f>
+        <f t="shared" si="6"/>
         <v>0.69262281044274054</v>
       </c>
       <c r="D27" s="2">
-        <f>(D22-D21)/(D24-0.5)</f>
+        <f t="shared" si="6"/>
         <v>0.74982811664455895</v>
       </c>
       <c r="E27" s="2">
-        <f>(E22-E21)/(E24-0.5)</f>
+        <f t="shared" si="6"/>
         <v>0.77528168849117962</v>
       </c>
       <c r="F27" s="2">
-        <f>(F22-F21)/(F24-0.5)</f>
+        <f t="shared" si="6"/>
         <v>1.6324192111874727</v>
       </c>
       <c r="G27" s="2">
-        <f>(G22-G21)/(G24-0.5)</f>
+        <f t="shared" si="6"/>
         <v>1.3713360599863675</v>
       </c>
       <c r="H27" s="2">
-        <f>(H22-H21)/(H24-0.5)</f>
+        <f t="shared" si="6"/>
         <v>1.2385972954389177</v>
       </c>
       <c r="I27" s="2">
@@ -3166,47 +3163,47 @@
         <v>37</v>
       </c>
       <c r="B28" s="2">
-        <f>ATAN(B26)</f>
+        <f t="shared" ref="B28:H28" si="7">ATAN(B26)</f>
         <v>1.2066690777957607</v>
       </c>
       <c r="C28" s="2">
-        <f>ATAN(C26)</f>
+        <f t="shared" si="7"/>
         <v>1.1966602783686411</v>
       </c>
       <c r="D28" s="2">
-        <f>ATAN(D26)</f>
+        <f t="shared" si="7"/>
         <v>1.1705899543729514</v>
       </c>
       <c r="E28" s="2">
-        <f>ATAN(E26)</f>
+        <f t="shared" si="7"/>
         <v>1.2016022788516523</v>
       </c>
       <c r="F28" s="2">
-        <f>ATAN(F26)</f>
+        <f t="shared" si="7"/>
         <v>1.2164869725525436</v>
       </c>
       <c r="G28" s="2">
-        <f>ATAN(G26)</f>
+        <f t="shared" si="7"/>
         <v>1.2044350785098925</v>
       </c>
       <c r="H28" s="2">
-        <f>ATAN(H26)</f>
+        <f t="shared" si="7"/>
         <v>1.2143233242096931</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" ref="I28:I32" si="5">AVERAGE(C28:H28)</f>
+        <f t="shared" ref="I28:I32" si="8">AVERAGE(C28:H28)</f>
         <v>1.200682981144229</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" ref="J28:J32" si="6">STDEV(C28:H28)/SQRT(COUNT(C28:H28))</f>
+        <f t="shared" ref="J28:J32" si="9">STDEV(C28:H28)/SQRT(COUNT(C28:H28))</f>
         <v>6.7639259905557803E-3</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" ref="K28:K32" si="7">B28-I28</f>
+        <f t="shared" ref="K28:K32" si="10">B28-I28</f>
         <v>5.9860966515317138E-3</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" ref="L28:L32" si="8">K28/J28</f>
+        <f t="shared" ref="L28:L32" si="11">K28/J28</f>
         <v>0.88500327470907858</v>
       </c>
       <c r="M28" s="2">
@@ -3223,43 +3220,43 @@
         <v>69.137045426640285</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" ref="C29:H29" si="9">DEGREES(C28)</f>
+        <f t="shared" ref="C29:H29" si="12">DEGREES(C28)</f>
         <v>68.563583461473371</v>
       </c>
       <c r="D29" s="2">
+        <f t="shared" si="12"/>
+        <v>67.069863925981721</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="12"/>
+        <v>68.84673923150153</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="12"/>
+        <v>69.699569359907571</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="12"/>
+        <v>69.009046696124798</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="12"/>
+        <v>69.575601441511765</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="8"/>
+        <v>68.794067352750133</v>
+      </c>
+      <c r="J29" s="2">
         <f t="shared" si="9"/>
-        <v>67.069863925981721</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="9"/>
-        <v>68.84673923150153</v>
-      </c>
-      <c r="F29" s="2">
-        <f t="shared" si="9"/>
-        <v>69.699569359907571</v>
-      </c>
-      <c r="G29" s="2">
-        <f t="shared" si="9"/>
-        <v>69.009046696124798</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="9"/>
-        <v>69.575601441511765</v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" si="5"/>
-        <v>68.794067352750133</v>
-      </c>
-      <c r="J29" s="2">
-        <f t="shared" si="6"/>
         <v>0.38754441219769203</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.34297807389015134</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.88500327470904994</v>
       </c>
       <c r="M29" s="2">
@@ -3273,47 +3270,47 @@
         <v>38</v>
       </c>
       <c r="B30" s="2">
-        <f>ATAN(B27)</f>
+        <f t="shared" ref="B30:H30" si="13">ATAN(B27)</f>
         <v>0.72991724601697061</v>
       </c>
       <c r="C30" s="2">
-        <f>ATAN(C27)</f>
+        <f t="shared" si="13"/>
         <v>0.60575765205050935</v>
       </c>
       <c r="D30" s="2">
-        <f>ATAN(D27)</f>
+        <f t="shared" si="13"/>
         <v>0.64339109436961472</v>
       </c>
       <c r="E30" s="2">
-        <f>ATAN(E27)</f>
+        <f t="shared" si="13"/>
         <v>0.65948603089381708</v>
       </c>
       <c r="F30" s="2">
-        <f>ATAN(F27)</f>
+        <f t="shared" si="13"/>
         <v>1.0211725100159257</v>
       </c>
       <c r="G30" s="2">
-        <f>ATAN(G27)</f>
+        <f t="shared" si="13"/>
         <v>0.94073030290841853</v>
       </c>
       <c r="H30" s="2">
-        <f>ATAN(H27)</f>
+        <f t="shared" si="13"/>
         <v>0.89158068876696439</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.79368637983420831</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7.2771506254058566E-2</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-6.37691338172377E-2</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-0.8762926191826792</v>
       </c>
       <c r="M30" s="2">
@@ -3330,43 +3327,43 @@
         <v>41.821177590584611</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" ref="C31:H31" si="10">DEGREES(C30)</f>
+        <f t="shared" ref="C31:H31" si="14">DEGREES(C30)</f>
         <v>34.707356870248425</v>
       </c>
       <c r="D31" s="2">
+        <f t="shared" si="14"/>
+        <v>36.86359428368219</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="14"/>
+        <v>37.785766218049943</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="14"/>
+        <v>58.508874978693328</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="14"/>
+        <v>53.899876016715893</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="14"/>
+        <v>51.083810561714067</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="8"/>
+        <v>45.474879821517305</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="9"/>
+        <v>4.1695001771674374</v>
+      </c>
+      <c r="K31" s="2">
         <f t="shared" si="10"/>
-        <v>36.86359428368219</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="10"/>
-        <v>37.785766218049943</v>
-      </c>
-      <c r="F31" s="2">
-        <f t="shared" si="10"/>
-        <v>58.508874978693328</v>
-      </c>
-      <c r="G31" s="2">
-        <f t="shared" si="10"/>
-        <v>53.899876016715893</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="10"/>
-        <v>51.083810561714067</v>
-      </c>
-      <c r="I31" s="2">
-        <f t="shared" si="5"/>
-        <v>45.474879821517305</v>
-      </c>
-      <c r="J31" s="2">
-        <f t="shared" si="6"/>
-        <v>4.1695001771674374</v>
-      </c>
-      <c r="K31" s="2">
-        <f t="shared" si="7"/>
         <v>-3.6537022309326943</v>
       </c>
       <c r="L31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-0.8762926191826782</v>
       </c>
       <c r="M31" s="2">
@@ -3384,43 +3381,43 @@
         <v>-27.315867836055673</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" ref="C32:H32" si="11">C31-C29</f>
+        <f t="shared" ref="C32:H32" si="15">C31-C29</f>
         <v>-33.856226591224946</v>
       </c>
       <c r="D32" s="2">
+        <f t="shared" si="15"/>
+        <v>-30.206269642299532</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="15"/>
+        <v>-31.060973013451587</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="15"/>
+        <v>-11.190694381214243</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="15"/>
+        <v>-15.109170679408905</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="15"/>
+        <v>-18.491790879797698</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="8"/>
+        <v>-23.319187531232817</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="9"/>
+        <v>3.8995932088558276</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="10"/>
+        <v>-3.9966803048228563</v>
+      </c>
+      <c r="L32" s="2">
         <f t="shared" si="11"/>
-        <v>-30.206269642299532</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" si="11"/>
-        <v>-31.060973013451587</v>
-      </c>
-      <c r="F32" s="2">
-        <f t="shared" si="11"/>
-        <v>-11.190694381214243</v>
-      </c>
-      <c r="G32" s="2">
-        <f t="shared" si="11"/>
-        <v>-15.109170679408905</v>
-      </c>
-      <c r="H32" s="2">
-        <f t="shared" si="11"/>
-        <v>-18.491790879797698</v>
-      </c>
-      <c r="I32" s="2">
-        <f t="shared" si="5"/>
-        <v>-23.319187531232817</v>
-      </c>
-      <c r="J32" s="2">
-        <f t="shared" si="6"/>
-        <v>3.8995932088558276</v>
-      </c>
-      <c r="K32" s="2">
-        <f t="shared" si="7"/>
-        <v>-3.9966803048228563</v>
-      </c>
-      <c r="L32" s="2">
-        <f t="shared" si="8"/>
         <v>-1.0248967240343294</v>
       </c>
       <c r="M32" s="2">
@@ -3487,11 +3484,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D19C4F4-CCBD-6146-BAEA-AF7A32EF8E55}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L20" sqref="L20:M21"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/analysis/_Overall/Declination/IL2022-decl.xlsx
+++ b/analysis/_Overall/Declination/IL2022-decl.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/_Overall/Declination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C6FADE-FB3D-D243-8327-77633E4DB114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD07792-3F9A-6543-8CA7-6E9ABA761AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12960" yWindow="5560" windowWidth="15260" windowHeight="11640" activeTab="1" xr2:uid="{97C195A7-3689-6942-ACB0-56BF6A69CD1F}"/>
+    <workbookView xWindow="1180" yWindow="500" windowWidth="24000" windowHeight="15480" xr2:uid="{97C195A7-3689-6942-ACB0-56BF6A69CD1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Errors" sheetId="3" r:id="rId1"/>
-    <sheet name="Sorted by v_i" sheetId="2" r:id="rId2"/>
-    <sheet name="Sorted by CD" sheetId="1" r:id="rId3"/>
+    <sheet name="FPTP decls" sheetId="4" r:id="rId2"/>
+    <sheet name="Sorted by v_i" sheetId="2" r:id="rId3"/>
+    <sheet name="Sorted by CD" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="IL2022_FPTP_decls" localSheetId="0">Errors!$B$35:$H$35</definedName>
+    <definedName name="IL2022_FPTP_decls" localSheetId="1">'FPTP decls'!$A$1:$G$1</definedName>
     <definedName name="IL2022_metrics" localSheetId="0">Errors!$A$1:$L$25</definedName>
-    <definedName name="IL2022_vi_points" localSheetId="2">'Sorted by CD'!$A$1:$L$18</definedName>
-    <definedName name="IL2022_vi_points" localSheetId="1">'Sorted by v_i'!$A$1:$L$18</definedName>
+    <definedName name="IL2022_vi_points" localSheetId="3">'Sorted by CD'!$A$1:$L$18</definedName>
+    <definedName name="IL2022_vi_points" localSheetId="2">'Sorted by v_i'!$A$1:$L$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,33 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{738E7C73-5346-D148-998C-01BE03AAB955}" name="IL2022-metrics" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{D677676F-D89A-B349-8D11-7456439E29AD}" name="IL2022-FPTP-decls" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/alecramsay/dev/method_eval/analysis/_Overall/Declination/IL2022-FPTP-decls.csv" comma="1">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{435584A3-B797-904D-BE85-9C7CDEC12482}" name="IL2022-FPTP-decls1" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/alecramsay/dev/method_eval/analysis/_Overall/Declination/IL2022-FPTP-decls.csv" comma="1">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{738E7C73-5346-D148-998C-01BE03AAB955}" name="IL2022-metrics" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/alecramsay/dev/method_eval/data/IL/IL2022-metrics.csv" comma="1">
       <textFields count="12">
         <textField type="text"/>
@@ -62,7 +91,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{631500FD-3BB3-674B-A948-EA7960D9FBDE}" name="IL2022-vi-points" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="4" xr16:uid="{631500FD-3BB3-674B-A948-EA7960D9FBDE}" name="IL2022-vi-points" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/alecramsay/dev/method_eval/data/IL/IL2022-vi-points.csv" comma="1">
       <textFields count="12">
         <textField/>
@@ -80,7 +109,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{4505B8A2-510C-C347-90BC-8DEECFA9615B}" name="IL2022-vi-points1" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="5" xr16:uid="{4505B8A2-510C-C347-90BC-8DEECFA9615B}" name="IL2022-vi-points1" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/alecramsay/dev/method_eval/data/IL/IL2022-vi-points.csv" comma="1">
       <textFields count="12">
         <textField/>
@@ -102,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>CD</t>
   </si>
@@ -1421,6 +1450,9 @@
   </si>
   <si>
     <t>dra-analytics code:</t>
+  </si>
+  <si>
+    <t>FPTP</t>
   </si>
 </sst>
 </file>
@@ -1576,15 +1608,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="IL2022-metrics" connectionId="1" xr16:uid="{6C3925D5-E52F-0A4C-98C1-DD910D607641}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="IL2022-FPTP-decls" connectionId="2" xr16:uid="{06D64759-60C0-3F40-AC88-46C169A5F36C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="IL2022-vi-points" connectionId="3" xr16:uid="{5DC58A5E-21B4-1A43-9418-317116E619A5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="IL2022-metrics" connectionId="3" xr16:uid="{6C3925D5-E52F-0A4C-98C1-DD910D607641}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="IL2022-vi-points" connectionId="2" xr16:uid="{BC2FBD46-1887-8045-80F4-FC32622A991B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="IL2022-FPTP-decls" connectionId="1" xr16:uid="{80BAEDE1-3240-FA47-9FDD-B55EC4014125}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="IL2022-vi-points" connectionId="5" xr16:uid="{5DC58A5E-21B4-1A43-9418-317116E619A5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="IL2022-vi-points" connectionId="4" xr16:uid="{BC2FBD46-1887-8045-80F4-FC32622A991B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1884,13 +1924,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B66943-B542-1B4B-9B80-6F52A8120BE4}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1:M2"/>
+      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3471,6 +3511,52 @@
       </c>
       <c r="N33" s="11"/>
     </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>-41.844588437512698</v>
+      </c>
+      <c r="C35">
+        <v>-42.835316586028597</v>
+      </c>
+      <c r="D35">
+        <v>-43.415406543805901</v>
+      </c>
+      <c r="E35">
+        <v>-39.505255677242197</v>
+      </c>
+      <c r="F35">
+        <v>-35.554847544534603</v>
+      </c>
+      <c r="G35">
+        <v>-37.942963687878198</v>
+      </c>
+      <c r="H35">
+        <v>-47.268125973359702</v>
+      </c>
+      <c r="I35" s="2">
+        <f>AVERAGE(C35:H35)</f>
+        <v>-41.086986002141536</v>
+      </c>
+      <c r="J35" s="2">
+        <f>STDEV(C35:H35)/SQRT(COUNT(C35:H35))</f>
+        <v>1.7289302708188856</v>
+      </c>
+      <c r="K35" s="2">
+        <f>B35-I35</f>
+        <v>-0.75760243537116168</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" ref="L35" si="16">K35/J35</f>
+        <v>-0.43819143441356545</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" ref="M35" si="17">J35/I35</f>
+        <v>-4.2079754176389823E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3481,10 +3567,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA553A9-C59C-5E41-98FF-970713F2446E}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>-41.844588437512698</v>
+      </c>
+      <c r="B1">
+        <v>-42.835316586028597</v>
+      </c>
+      <c r="C1">
+        <v>-43.415406543805901</v>
+      </c>
+      <c r="D1">
+        <v>-39.505255677242197</v>
+      </c>
+      <c r="E1">
+        <v>-35.554847544534603</v>
+      </c>
+      <c r="F1">
+        <v>-37.942963687878198</v>
+      </c>
+      <c r="G1">
+        <v>-47.268125973359702</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D19C4F4-CCBD-6146-BAEA-AF7A32EF8E55}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4372,7 +4499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3414C2E7-6B06-5841-9257-D4AE04494618}">
   <dimension ref="A1:M20"/>
   <sheetViews>
